--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N2">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q2">
-        <v>19.37642469365798</v>
+        <v>32.86074995612555</v>
       </c>
       <c r="R2">
-        <v>19.37642469365798</v>
+        <v>295.74674960513</v>
       </c>
       <c r="S2">
-        <v>0.001701705326439488</v>
+        <v>0.002716410486296761</v>
       </c>
       <c r="T2">
-        <v>0.001701705326439488</v>
+        <v>0.002716410486296761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N3">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P3">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q3">
-        <v>89.76847305821552</v>
+        <v>145.8196687764086</v>
       </c>
       <c r="R3">
-        <v>89.76847305821552</v>
+        <v>1312.377018987678</v>
       </c>
       <c r="S3">
-        <v>0.007883780994927515</v>
+        <v>0.01205407904267014</v>
       </c>
       <c r="T3">
-        <v>0.007883780994927515</v>
+        <v>0.01205407904267014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N4">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q4">
-        <v>5.449641264075621</v>
+        <v>8.798453421909999</v>
       </c>
       <c r="R4">
-        <v>5.449641264075621</v>
+        <v>79.18608079719</v>
       </c>
       <c r="S4">
-        <v>0.0004786065392805536</v>
+        <v>0.000727317884417751</v>
       </c>
       <c r="T4">
-        <v>0.0004786065392805536</v>
+        <v>0.000727317884417751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N5">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q5">
-        <v>43.56769449842177</v>
+        <v>69.77086555084134</v>
       </c>
       <c r="R5">
-        <v>43.56769449842177</v>
+        <v>627.937789957572</v>
       </c>
       <c r="S5">
-        <v>0.003826267175745738</v>
+        <v>0.005767558898483915</v>
       </c>
       <c r="T5">
-        <v>0.003826267175745738</v>
+        <v>0.005767558898483915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N6">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q6">
-        <v>1283.6474668367</v>
+        <v>1362.127462126711</v>
       </c>
       <c r="R6">
-        <v>1283.6474668367</v>
+        <v>12259.1471591404</v>
       </c>
       <c r="S6">
-        <v>0.112734406172545</v>
+        <v>0.112599296325678</v>
       </c>
       <c r="T6">
-        <v>0.112734406172545</v>
+        <v>0.112599296325678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N7">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P7">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q7">
-        <v>5946.97292533502</v>
+        <v>6044.444378894692</v>
       </c>
       <c r="R7">
-        <v>5946.97292533502</v>
+        <v>54399.99941005222</v>
       </c>
       <c r="S7">
-        <v>0.5222839436702871</v>
+        <v>0.4996596887347168</v>
       </c>
       <c r="T7">
-        <v>0.5222839436702871</v>
+        <v>0.4996596887347168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N8">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q8">
-        <v>361.0272955097369</v>
+        <v>364.7091148627999</v>
       </c>
       <c r="R8">
-        <v>361.0272955097369</v>
+        <v>3282.3820337652</v>
       </c>
       <c r="S8">
-        <v>0.03170667868154472</v>
+        <v>0.03014841917436652</v>
       </c>
       <c r="T8">
-        <v>0.03170667868154472</v>
+        <v>0.03014841917436652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N9">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q9">
-        <v>2886.268316420578</v>
+        <v>2892.107214535306</v>
       </c>
       <c r="R9">
-        <v>2886.268316420578</v>
+        <v>26028.96493081776</v>
       </c>
       <c r="S9">
-        <v>0.2534821694527588</v>
+        <v>0.2390739826555225</v>
       </c>
       <c r="T9">
-        <v>0.2534821694527588</v>
+        <v>0.2390739826555225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N10">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q10">
-        <v>27.67785707586265</v>
+        <v>81.4116011391072</v>
       </c>
       <c r="R10">
-        <v>27.67785707586265</v>
+        <v>732.704410251965</v>
       </c>
       <c r="S10">
-        <v>0.002430766127140179</v>
+        <v>0.006729832013443023</v>
       </c>
       <c r="T10">
-        <v>0.002430766127140179</v>
+        <v>0.006729832013443023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N11">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P11">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q11">
-        <v>128.2279371197381</v>
+        <v>361.2642051234976</v>
       </c>
       <c r="R11">
-        <v>128.2279371197381</v>
+        <v>3251.377846111478</v>
       </c>
       <c r="S11">
-        <v>0.01126142552327655</v>
+        <v>0.02986364816479794</v>
       </c>
       <c r="T11">
-        <v>0.01126142552327655</v>
+        <v>0.02986364816479794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N12">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q12">
-        <v>7.784428469467717</v>
+        <v>21.797925536755</v>
       </c>
       <c r="R12">
-        <v>7.784428469467717</v>
+        <v>196.181329830795</v>
       </c>
       <c r="S12">
-        <v>0.0006836557104426062</v>
+        <v>0.001801909986431077</v>
       </c>
       <c r="T12">
-        <v>0.0006836557104426062</v>
+        <v>0.001801909986431077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N13">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q13">
-        <v>62.23338105542508</v>
+        <v>172.8553938951273</v>
       </c>
       <c r="R13">
-        <v>62.23338105542508</v>
+        <v>1555.698545056146</v>
       </c>
       <c r="S13">
-        <v>0.005465552995389176</v>
+        <v>0.01428896800032262</v>
       </c>
       <c r="T13">
-        <v>0.005465552995389176</v>
+        <v>0.01428896800032262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N14">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q14">
-        <v>64.25307206732388</v>
+        <v>68.87100291186556</v>
       </c>
       <c r="R14">
-        <v>64.25307206732388</v>
+        <v>619.83902620679</v>
       </c>
       <c r="S14">
-        <v>0.005642929317752459</v>
+        <v>0.005693172394463033</v>
       </c>
       <c r="T14">
-        <v>0.005642929317752459</v>
+        <v>0.005693172394463033</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N15">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P15">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q15">
-        <v>297.6761843309004</v>
+        <v>305.6152658206527</v>
       </c>
       <c r="R15">
-        <v>297.6761843309004</v>
+        <v>2750.537392385874</v>
       </c>
       <c r="S15">
-        <v>0.02614296272087157</v>
+        <v>0.02526346823964802</v>
       </c>
       <c r="T15">
-        <v>0.02614296272087157</v>
+        <v>0.02526346823964801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N16">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q16">
-        <v>18.07124887164148</v>
+        <v>18.44018508553</v>
       </c>
       <c r="R16">
-        <v>18.07124887164148</v>
+        <v>165.96166576977</v>
       </c>
       <c r="S16">
-        <v>0.001587080224885408</v>
+        <v>0.001524344763965114</v>
       </c>
       <c r="T16">
-        <v>0.001587080224885408</v>
+        <v>0.001524344763965114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N17">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q17">
-        <v>144.4723811885941</v>
+        <v>146.2288441660974</v>
       </c>
       <c r="R17">
-        <v>144.4723811885941</v>
+        <v>1316.059597494876</v>
       </c>
       <c r="S17">
-        <v>0.01268806936671318</v>
+        <v>0.0120879032347768</v>
       </c>
       <c r="T17">
-        <v>0.01268806936671318</v>
+        <v>0.0120879032347768</v>
       </c>
     </row>
   </sheetData>
